--- a/Нарушения GDPR.xlsx
+++ b/Нарушения GDPR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="247">
   <si>
     <t>Надзорный орган (страна)</t>
   </si>
@@ -34,68 +34,785 @@
     <t>Австрия</t>
   </si>
   <si>
-    <t>Отправил сообщение на почту, так как они предоставляют информацию по подписке на рассылку</t>
-  </si>
-  <si>
     <t>Бельгия</t>
   </si>
   <si>
-    <t>Не нашел новостной ленты</t>
-  </si>
-  <si>
     <t>Болгария</t>
   </si>
   <si>
-    <t>https://www.cpdp.bg/en/index.php?p=news_view&amp;aid=1369</t>
-  </si>
-  <si>
-    <t>Посмотреть этот случай, он не имеет подробной информации о результате расследования</t>
-  </si>
-  <si>
-    <t>https://www.cpdp.bg/?p=element_view&amp;aid=2156</t>
-  </si>
-  <si>
-    <t>Возник вопрос при обработке ПДн фармацевтической компанией, результатом стало разрешение продолжить работы, так как эта деятельность требует наличия лицензии и была объявлена автономность их работы</t>
-  </si>
-  <si>
-    <t>https://www.cpdp.bg/?p=element_view&amp;aid=2150</t>
-  </si>
-  <si>
-    <t>Такая же ситуация, как и с предыдущем случаем, фармацевтика - свои обязанности</t>
-  </si>
-  <si>
-    <t>https://www.cpdp.bg/index.php?p=element_view&amp;aid=2148</t>
-  </si>
-  <si>
-    <t>Вопрос в обработке данных работодателем в целях выдачи зарплатных карт</t>
-  </si>
-  <si>
     <t>Хорватия</t>
   </si>
   <si>
-    <t>Устаревшие новости на ресурсе, поиск "croatia data breach" или "croatia data leaks" ничего не дал</t>
-  </si>
-  <si>
     <t>Кипр</t>
   </si>
   <si>
-    <t>Отсутствие новостей, поиск, подобный хорватским, дал такой результат - https://in-cyprus.com/report-35-personal-data-breaches-in-cyprus-since-adoption-of-gdpr/</t>
-  </si>
-  <si>
-    <t>Надо полностью просмотерть сайт для Кипра</t>
+    <t>Новости предоставляют по рассылке, запрос отправлен.</t>
+  </si>
+  <si>
+    <t>https://www.dataprotectionauthority.be/news/data-protection-authority-defends-its-arguments-court-appeal-brussels-facebook-case</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Это судебное разбирательство проходит уже несколько лет. Ссылка дана на последнюю аппеляцию от Facebook</t>
+  </si>
+  <si>
+    <t>У них были прецеденты, связанные с ПДн, но они заканчивались постановлениями о продолжении работы без санкций.</t>
+  </si>
+  <si>
+    <t>http://www.dataprotection.gov.cy/dataprotection/dataprotection.nsf/All/DF8E7A541F88FDC5C2258392003DC981?OpenDocument</t>
+  </si>
+  <si>
+    <t>Статистические данные. Указано, что они издавали решения о наложении санкций 4 раза, без указания остальной информации</t>
+  </si>
+  <si>
+    <t>http://www.dataprotection.gov.cy/dataprotection/dataprotection.nsf/All/E3E5F0761225079EC225838A0042C953?OpenDocument</t>
+  </si>
+  <si>
+    <t>Google LLC</t>
+  </si>
+  <si>
+    <t>50 миллионов евро</t>
+  </si>
+  <si>
+    <t>Отсутствие прозрачности, отсутствие согласия по поводу персонализации рекламы</t>
+  </si>
+  <si>
+    <t>Кипрское агенство ссылается на французское и приводят здесь информацию кратко</t>
+  </si>
+  <si>
+    <t>Чехия</t>
+  </si>
+  <si>
+    <t>Плагины Facebook есть на множестве веб-сайтов, информацию с которых они собирают в целях профилирования для таргетированной рекламы, есть случаи использования данных чувствительной категории</t>
+  </si>
+  <si>
+    <t>https://www.uoou.cz/urad-udelil-spolecnosti-internet-mall-a-s-pokutu-1-5-milionu-korun/d-31959</t>
+  </si>
+  <si>
+    <t>1.5 миллиона чешских крон</t>
+  </si>
+  <si>
+    <t>Нарушение обязательства, связанного с приемом мер для предотвращения неправомерного использования ПДн</t>
+  </si>
+  <si>
+    <t>Internet Mall</t>
+  </si>
+  <si>
+    <t>https://www.uoou.cz/preprodavani-databazi-i-nadale-v-hledacku-uoou/d-31528</t>
+  </si>
+  <si>
+    <t>Solidis</t>
+  </si>
+  <si>
+    <t>Перепродажа баз данных</t>
+  </si>
+  <si>
+    <t>800 тысяч чешских крон</t>
+  </si>
+  <si>
+    <t>ChCW</t>
+  </si>
+  <si>
+    <t>Разглашение личных конфиденциальных данных персонала</t>
+  </si>
+  <si>
+    <t>180 тысяч чешских крон</t>
+  </si>
+  <si>
+    <t>https://www.uoou.cz/assets/File.ashx?id_org=200144&amp;id_dokumenty=33526</t>
+  </si>
+  <si>
+    <t>Отчет за весь 2018 год. В нем содержится информация по всем нарушениям за год, но не к каждому случаю были применены санкции</t>
+  </si>
+  <si>
+    <t>Дания</t>
+  </si>
+  <si>
+    <t>Taxa 4x35</t>
+  </si>
+  <si>
+    <t>https://www.datatilsynet.dk/presse-og-nyheder/nyhedsarkiv/2019/mar/datatilsynet-indstiller-taxaselskab-til-boede-paa-1-2-mio-kr/</t>
+  </si>
+  <si>
+    <t>Нарушение сроков хранения ПДн</t>
+  </si>
+  <si>
+    <t>1.2 миллиона датских крон</t>
+  </si>
+  <si>
+    <t>Эстония</t>
+  </si>
+  <si>
+    <t>Финляндия</t>
+  </si>
+  <si>
+    <t>Франция</t>
+  </si>
+  <si>
+    <t>Во вкладке "новости" данных о нарушениях нет, но у них есть вкладка "Пресс-релизы"</t>
+  </si>
+  <si>
+    <t>https://www.cnil.fr/fr/applications-mobiles-cloture-de-la-mise-en-demeure-lencontre-de-la-societe-vectaury</t>
+  </si>
+  <si>
+    <t>VECTAURY </t>
+  </si>
+  <si>
+    <t>Компания не получала согласие отдельных лиц на обработку своих геолокационных данных в рекламных целях</t>
+  </si>
+  <si>
+    <t>Штрафа не было, компания выполнила свои обязательства.</t>
+  </si>
+  <si>
+    <t>HUMANIS и MALAKOFF-MEDERIC</t>
+  </si>
+  <si>
+    <t>То есть агенство сообщало, что деятельность организации, на которую подали жалобу, по обработке ПДн находится в контексте действия лицензии, а обработка определенных категорий ПДн соответствует ей.</t>
+  </si>
+  <si>
+    <t>Использование ПДн для коммерческих поисковых целей, не соответствующим ранее заявленным</t>
+  </si>
+  <si>
+    <t>https://www.cnil.fr/fr/groupes-humanis-et-malakoff-mederic-cloture-des-mises-en-demeure</t>
+  </si>
+  <si>
+    <t>https://www.cnil.fr/fr/la-formation-restreinte-de-la-cnil-prononce-une-sanction-de-50-millions-deuros-lencontre-de-la</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>400 тысяч евро</t>
+  </si>
+  <si>
+    <t>Недостаточная защита ПДн</t>
+  </si>
+  <si>
+    <t>https://www.cnil.fr/fr/uber-sanction-de-400000eu-pour-une-atteinte-la-securite-des-donnees-des-utilisateurs</t>
+  </si>
+  <si>
+    <t>Дополнительно в статье указывается: Агенство Нидерландов также оштрафовало Uber на 600 тысяч евро за неуведомление о нарушении. Британские власти наложили штраф в размере 385 тысяч фунтов за неспособность защитить ПДн</t>
+  </si>
+  <si>
+    <t>https://www.cnil.fr/fr/applications-mobiles-cloture-des-mises-en-demeure-lencontre-des-societes-fidzup-et-singlespot</t>
+  </si>
+  <si>
+    <t>https://www.cnil.fr/fr/applications-mobiles-cloture-de-la-mise-en-demeure-lencontre-de-la-societe-teemo</t>
+  </si>
+  <si>
+    <t>https://www.cnil.fr/fr/alliance-francaise-paris-ile-de-france-sanction-de-30000eu-pour-une-atteinte-la-securite-des-donnees</t>
+  </si>
+  <si>
+    <t>https://www.cnil.fr/fr/biometrie-au-travail-illegale-sanction-de-10000-euros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIDZUP и SINGLESPOT </t>
+  </si>
+  <si>
+    <t>Штрафа не было, компании выполнила свои обязательства.</t>
+  </si>
+  <si>
+    <t>FIDZUP - Чрезмерный срок хранения ПДн, недостаточная сохранность данных. SINGLESPOT не получали согласие отдельных лиц на обработку своих геолокационных данных в рекламных целях.</t>
+  </si>
+  <si>
+    <t>TEEMO</t>
+  </si>
+  <si>
+    <t>Компания не получала согласие отдельных лиц на обработку своих геолокационных данных в рекламных целях, а также чрезмерный срок хранения данных о местоположении.</t>
+  </si>
+  <si>
+    <t>Ассоциация ALLIANCE FRANCAISE PARIS ISLAND-DE-FRANCE</t>
+  </si>
+  <si>
+    <t>30 тысяч евро</t>
+  </si>
+  <si>
+    <t>Компания не выполнила своих обязательств по обеспечению безопасности личных данных.</t>
+  </si>
+  <si>
+    <t>ASSISTANCE CALLER CALLS</t>
+  </si>
+  <si>
+    <t>Незаконное внедрение биометрической системы для контроля над расписанием сотрудников.</t>
+  </si>
+  <si>
+    <t>10 тысяч евро</t>
+  </si>
+  <si>
+    <t>Германия</t>
+  </si>
+  <si>
+    <t>Греция</t>
+  </si>
+  <si>
+    <t>HEP GROUP</t>
+  </si>
+  <si>
+    <t>20 и 10 тысяч евро</t>
+  </si>
+  <si>
+    <t>http://www.dpa.gr/APDPXPortlets/htdocs/documentSDisplay.jsp?docid=58,151,37,84,93,153,243,191</t>
+  </si>
+  <si>
+    <t>Wind, Vodafone, OTE и Cοsmote</t>
+  </si>
+  <si>
+    <t>150 тысяч евро</t>
+  </si>
+  <si>
+    <t>Нарушение конфиденциальности ПДн</t>
+  </si>
+  <si>
+    <t>http://www.dpa.gr/APDPXPortlets/htdocs/documentDisplay.jsp?docid=107,24,185,128,121,30,28,27</t>
+  </si>
+  <si>
+    <t>Венгрия</t>
+  </si>
+  <si>
+    <t>http://www.naih.hu/files/NAIH-2019-2668-hatarozat.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компания не сообщила об инциденте </t>
+  </si>
+  <si>
+    <t>11 миллионов евро</t>
+  </si>
+  <si>
+    <t>Неспособность сообщить об инциденте</t>
+  </si>
+  <si>
+    <t>http://www.naih.hu/files/NAIH-2019-0721-hatarozat.pdf</t>
+  </si>
+  <si>
+    <t>1 миллион венгерского форинта</t>
+  </si>
+  <si>
+    <t>Нарушение права на удаление и исправление ПДн</t>
+  </si>
+  <si>
+    <t>http://www.naih.hu/files/NAIH-2019-2526-2-H-hatarozat.pdf</t>
+  </si>
+  <si>
+    <t>Незаконная передача ПДн третьим лицам</t>
+  </si>
+  <si>
+    <t>http://www.naih.hu/files/NAIH-2019-596-hatarozat.pdf</t>
+  </si>
+  <si>
+    <t>500 тысяч венгерских фориантов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Незаконная обработка ПДн </t>
+  </si>
+  <si>
+    <t>Незаконная обработка ПДн чувствительной категории</t>
+  </si>
+  <si>
+    <t>http://www.naih.hu/files/NAIH-2019-1841_hatarozat.pdf</t>
+  </si>
+  <si>
+    <t>Несоблюдение принципа точности ПДн</t>
+  </si>
+  <si>
+    <t>Документы на венгерском языке, как и названия компаний, нормальный перевод осуществить проблематично. Также к каждому нарушению добавляется оплата судебных издержек в размере 30 тысяч венгерских фориантов</t>
+  </si>
+  <si>
+    <t>http://www.naih.hu/files/NAIH-2019_363_hatarozat.pdf</t>
+  </si>
+  <si>
+    <t>http://www.naih.hu/files/NAIH-2018-21-H-hatarozat.pdf</t>
+  </si>
+  <si>
+    <t>Незаконная обработка ПДн</t>
+  </si>
+  <si>
+    <t>Церковь Саентологии и Церковь Саентологии XVIII</t>
+  </si>
+  <si>
+    <t>По 12 миллионов венгерских фориантов</t>
+  </si>
+  <si>
+    <t>Передача ПДн третьим лицам</t>
+  </si>
+  <si>
+    <t>http://www.naih.hu/files/NAIH-2018-5573-H-hatarozat.pdf</t>
+  </si>
+  <si>
+    <t>Штрафа не было, только оплата судебных издержек и запрет на дальнейшую передачу</t>
+  </si>
+  <si>
+    <t>http://www.naih.hu/files/NAIH-2018-5559-H-hatarozat.pdf</t>
+  </si>
+  <si>
+    <t>Не выполнение права на выдачу копии ПДн или права на ограничение обработки ПДн</t>
+  </si>
+  <si>
+    <t>Ирландия</t>
+  </si>
+  <si>
+    <t>В новостях указаны только случаи, когда они открывали расследования, но никаких решений нет</t>
+  </si>
+  <si>
+    <t>Италия</t>
+  </si>
+  <si>
+    <t>600 тысяч евро</t>
+  </si>
+  <si>
+    <t>https://www.garanteprivacy.it/web/guest/home/docweb/-/docweb-display/docweb/9081082</t>
+  </si>
+  <si>
+    <t>Wind Tre</t>
+  </si>
+  <si>
+    <t>Fastweb</t>
+  </si>
+  <si>
+    <t>Агрессивный маркетинг (обращение с коммерческим предложением к субъектам, выступившим против обращения с маркетинговыми целями)</t>
+  </si>
+  <si>
+    <t>https://www.garanteprivacy.it/web/guest/home/docweb/-/docweb-display/docweb/9040282</t>
+  </si>
+  <si>
+    <t>Латвия</t>
+  </si>
+  <si>
+    <t>Новостей о нарушениях нет.</t>
+  </si>
+  <si>
+    <t>Литва</t>
+  </si>
+  <si>
+    <t>Люксембург</t>
+  </si>
+  <si>
+    <t>Мальта</t>
+  </si>
+  <si>
+    <t>Нидерланды</t>
+  </si>
+  <si>
+    <t>https://autoriteitpersoonsgegevens.nl/nl/nieuws/ap-legt-uber-boete-op-voor-te-laat-melden-datalek</t>
+  </si>
+  <si>
+    <t>Нарушение обязательства по предоставлению информации о нарушении правил хранения ПДн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UWV </t>
+  </si>
+  <si>
+    <t>https://autoriteitpersoonsgegevens.nl/nl/nieuws/ap-dwingt-uwv-met-sanctie-gegevens-beter-te-beveiligen</t>
+  </si>
+  <si>
+    <t>150 тысяч евро в месяц, но не более 900 тысяч евро</t>
+  </si>
+  <si>
+    <t>Польша</t>
+  </si>
+  <si>
+    <t>https://uodo.gov.pl/pl/138/786</t>
+  </si>
+  <si>
+    <t>более 943 тысяч польских злотых</t>
+  </si>
+  <si>
+    <t>Невыполнение обязательства по раскрытию информации</t>
+  </si>
+  <si>
+    <t>Португалия</t>
+  </si>
+  <si>
+    <t>Румыния</t>
+  </si>
+  <si>
+    <t>Словакия</t>
+  </si>
+  <si>
+    <t>Словения</t>
+  </si>
+  <si>
+    <t>https://www.ip-rs.si/novice/zaradi-zlorabe-osebnih-podatkov-v-aferi-cambridge-analytica-facebooku-grozi-globa-ranl-1092/</t>
+  </si>
+  <si>
+    <t>более полумиллиона евро</t>
+  </si>
+  <si>
+    <t>Cambridge Analytica и Facebook</t>
+  </si>
+  <si>
+    <t>Пользователи не обладали информацией о целях обработки ПДн, также происходила обработка ПДн третьих сторон (друзей пользователей) без правовой основы</t>
+  </si>
+  <si>
+    <t>Испания</t>
+  </si>
+  <si>
+    <t>На сайте не работает поиск, который выдает новости и не только, результат при любом значении отсутствует</t>
+  </si>
+  <si>
+    <t>Швеция</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2019/04/ico-fines-funeral-plan-firm-and-asks-public-to-help-elderly-relatives-to-report-nuisance-calls/</t>
+  </si>
+  <si>
+    <t>Великобритания</t>
+  </si>
+  <si>
+    <t>80 тысяч фунтов</t>
+  </si>
+  <si>
+    <t>Avalon Direct Limited</t>
+  </si>
+  <si>
+    <t>Незаконные маркетинговые операции</t>
+  </si>
+  <si>
+    <t>Bounty UK Limited</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2019/04/bounty-uk-fined-400-000-for-sharing-personal-data-unlawfully/</t>
+  </si>
+  <si>
+    <t>400 тысяч фунтов</t>
+  </si>
+  <si>
+    <t>Незаконный обмен ПДн</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2019/04/ico-fines-production-company-120-000-for-unlawful-filming-in-maternity-clinic/</t>
+  </si>
+  <si>
+    <t>True Visions Productions</t>
+  </si>
+  <si>
+    <t>120 тысяч фунтов</t>
+  </si>
+  <si>
+    <t>Незаконные съемки пациентов</t>
+  </si>
+  <si>
+    <t>Лондонский район Ньюхэм</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2019/04/london-council-fined-by-the-ico-for-disclosing-sensitive-personal-data-about-alleged-gang-members/</t>
+  </si>
+  <si>
+    <t>145 тысяч фунтов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разглашение личных конфиденциальных данных </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent </t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2019/03/ico-fines-kent-pensions-company-for-sending-nearly-2-million-spam-emails/</t>
+  </si>
+  <si>
+    <t>40 тысяч фунтов</t>
+  </si>
+  <si>
+    <t>Прямой маркетинг без согласия</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2019/03/ico-fines-vote-leave-40-000-for-sending-unlawful-text-messages/</t>
+  </si>
+  <si>
+    <t>Vote Leave Limited</t>
+  </si>
+  <si>
+    <t>Leave.EU и Eldon Insurance</t>
+  </si>
+  <si>
+    <t>в сумме 120 тысяч фунтов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нарушение законов об электронном маркетинге </t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2019/02/ico-to-audit-data-protection-practices-at-leaveeu-and-eldon-insurance-after-fining-both-companies-for-unlawful-marketing-messages/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uber </t>
+  </si>
+  <si>
+    <t>385 тысяч фунтов</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2018/11/ico-fines-uber-385-000-over-data-protection-failings/</t>
+  </si>
+  <si>
+    <t>Неспособность защитить ПДн</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2018/11/ico-fines-two-firms-for-over-one-million-nuisance-calls-made-to-tps-subscribers/</t>
+  </si>
+  <si>
+    <t>DM Design Rooms Ltd</t>
+  </si>
+  <si>
+    <t>Solartech North East Ltd</t>
+  </si>
+  <si>
+    <t>160 тысяч фунтов</t>
+  </si>
+  <si>
+    <t>90 тысяч фунтов</t>
+  </si>
+  <si>
+    <t>Запрещается совершать маркетинговые звонки на номера, которые были зарегистрированы в TPS более 28 дней, если только люди не дали на это согласие.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facebook </t>
+  </si>
+  <si>
+    <t>500 тысяч фунтов</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2018/10/facebook-issued-with-maximum-500-000-fine/</t>
+  </si>
+  <si>
+    <t>Нарушение закона о защите данных</t>
+  </si>
+  <si>
+    <t>Boost Finance Ltd</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2018/10/ico-fines-firm-90-000-for-nuisance-emails-about-pre-paid-funeral-plans/</t>
+  </si>
+  <si>
+    <t>Oaklands Assist UK Ltd</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2018/10/ico-fines-manchester-firm-150-000-for-making-nuisance-calls/</t>
+  </si>
+  <si>
+    <t>150 тысяч фунтов</t>
+  </si>
+  <si>
+    <t>Bupa Insurance Services Limited</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2018/09/bupa-fined-175-000-for-systemic-data-protection-failures/</t>
+  </si>
+  <si>
+    <t>Неспособность принять эффективные меры безопасности для защиты ПДн</t>
+  </si>
+  <si>
+    <t>175 тысяч фунтов</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2018/09/marketing-agency-fined-60-000-for-nuisance-emails/</t>
+  </si>
+  <si>
+    <t>60 тысяч фунтов</t>
+  </si>
+  <si>
+    <t>Everything DM Ltd</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2018/08/emma-s-diary-fined-140-000-for-selling-personal-information-for-political-campaigning/</t>
+  </si>
+  <si>
+    <t>Emma’s Diary</t>
+  </si>
+  <si>
+    <t>140 тысяч фунтов</t>
+  </si>
+  <si>
+    <t>Незаконный сбор и продажа ПДн</t>
+  </si>
+  <si>
+    <t>AMS Marketing Ltd</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2018/08/marketing-firm-fined-100-000-after-making-more-than-75-000-nuisance-calls/</t>
+  </si>
+  <si>
+    <t>100 тысяч фунтов</t>
+  </si>
+  <si>
+    <t>The Independent Inquiry into Child Sexual Abuse</t>
+  </si>
+  <si>
+    <t>200 тысяч фунтов</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2018/07/independent-inquiry-into-child-sexual-abuse-fined-200-000/</t>
+  </si>
+  <si>
+    <t>Разглашение конфиденциальной информации</t>
+  </si>
+  <si>
+    <t>Noble Design and Build of Telford</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2018/07/company-that-failed-to-register-with-the-ico-and-failed-to-comply-with-an-information-notice-is-prosecuted-1/</t>
+  </si>
+  <si>
+    <t>Не зарегистрировалась в агенстве; Обрабатывала ПДн без уведомления</t>
+  </si>
+  <si>
+    <t>2000 и 2500 фунтов соответственно</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2018/06/ico-takes-action-against-companies-behind-more-than-55-000-nuisance-calls/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Vault Limited и Horizon Windows Limited</t>
+  </si>
+  <si>
+    <t>Первая - 70 тысяч фунтов, вторая - только уведомление</t>
+  </si>
+  <si>
+    <t>British Telecommunications plc</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2018/06/bt-fined-77-000-by-the-ico-for-five-million-spam-emails/</t>
+  </si>
+  <si>
+    <t>77 тысяч фунтов</t>
+  </si>
+  <si>
+    <t>Gloucestershire Police</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2018/06/gloucestershire-police-fined-for-revealing-identities-of-abuse-victims-in-bulk-email/</t>
+  </si>
+  <si>
+    <t>Yahoo!</t>
+  </si>
+  <si>
+    <t>250 тысяч фунтов</t>
+  </si>
+  <si>
+    <t>https://ico.org.uk/about-the-ico/news-and-events/news-and-blogs/2018/06/yahoo-fined-250-000-after-systemic-failures-put-customer-data-at-risk/</t>
+  </si>
+  <si>
+    <t>Недостаточная защита ПДн, компания не смогла обеспечить надлежащий контроль за учетными записями сотрудников</t>
+  </si>
+  <si>
+    <t>Исландия</t>
+  </si>
+  <si>
+    <t>https://www.personuvernd.is/urlausnir/akvordun-um-hvort-logd-skuli-a-sekt-vegna-gagnagrunns-med-skattskrarupplysingum</t>
+  </si>
+  <si>
+    <t>Viskubrunn ehf</t>
+  </si>
+  <si>
+    <t>Нарушение конфиденциальности и правил обработки ПДн</t>
+  </si>
+  <si>
+    <t>Fons Juris ehf</t>
+  </si>
+  <si>
+    <t>https://www.personuvernd.is/urlausnir/urskurdur-um-adgang-ad-domum-a-vef-fons-juris-ehf</t>
+  </si>
+  <si>
+    <t>Публикация личных данных из судебных решений</t>
+  </si>
+  <si>
+    <t>https://www.personuvernd.is/urlausnir/akvordun-um-afhendingu-barnaverndarstofu-a-gognum-til-fjolmidla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barnaverndarstofu á gögnum </t>
+  </si>
+  <si>
+    <t>Распространение конфиденциальной личной информации</t>
+  </si>
+  <si>
+    <t>Лихтенштейн</t>
+  </si>
+  <si>
+    <t>Норвегия</t>
+  </si>
+  <si>
+    <t>Tolldirektoratet</t>
+  </si>
+  <si>
+    <t>https://www.datatilsynet.no/aktuelt/aktuelle-nyheter-20192/varsel-om-gebyr-til-tolldirektoratet/</t>
+  </si>
+  <si>
+    <t>Сбор и использование информации с камер без согласия</t>
+  </si>
+  <si>
+    <t>900 000 норвежских крон</t>
+  </si>
+  <si>
+    <t>Швейцария</t>
+  </si>
+  <si>
+    <t>https://www.baden-wuerttemberg.datenschutz.de/wp-content/uploads/2018/11/LfDI-Baden-W%C3%BCrttemberg-verh%C3%A4ngt-sein-erstes-Bu%C3%9Fgeld-in-Deutschland-nach-der-DS-GVO.pdf</t>
+  </si>
+  <si>
+    <t>20 тысяч евро</t>
+  </si>
+  <si>
+    <t>baden-württembergischen Social-Media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,13 +832,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,20 +1191,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
     <col min="3" max="3" width="21.109375" customWidth="1"/>
     <col min="4" max="4" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -456,81 +1223,1082 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>22</v>
+    </row>
+    <row r="20" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B45" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B54" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B55" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B56" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B57" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B58" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B59" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B60" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="81" x14ac:dyDescent="0.3">
+      <c r="B61" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="81" x14ac:dyDescent="0.3">
+      <c r="B62" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B63" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B64" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B65" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B66" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" t="s">
+        <v>199</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E67" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B68" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B69" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B70" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B71" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B72" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B74" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E74" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B75" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C75" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E75" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B78" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" t="s">
+        <v>231</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>238</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C81" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E81" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
+    <hyperlink ref="B13" r:id="rId6"/>
+    <hyperlink ref="B17" r:id="rId7"/>
+    <hyperlink ref="B18" r:id="rId8"/>
+    <hyperlink ref="B19" r:id="rId9"/>
+    <hyperlink ref="B20" r:id="rId10"/>
+    <hyperlink ref="B21" r:id="rId11"/>
+    <hyperlink ref="B22" r:id="rId12"/>
+    <hyperlink ref="B23" r:id="rId13"/>
+    <hyperlink ref="B24" r:id="rId14"/>
+    <hyperlink ref="B38" r:id="rId15"/>
+    <hyperlink ref="B39" r:id="rId16"/>
+    <hyperlink ref="B44" r:id="rId17"/>
+    <hyperlink ref="B45" r:id="rId18"/>
+    <hyperlink ref="B46" r:id="rId19"/>
+    <hyperlink ref="B50" r:id="rId20"/>
+    <hyperlink ref="B53" r:id="rId21"/>
+    <hyperlink ref="B54" r:id="rId22"/>
+    <hyperlink ref="B55" r:id="rId23"/>
+    <hyperlink ref="B56" r:id="rId24"/>
+    <hyperlink ref="B57" r:id="rId25"/>
+    <hyperlink ref="B58" r:id="rId26"/>
+    <hyperlink ref="B59" r:id="rId27"/>
+    <hyperlink ref="B60" r:id="rId28"/>
+    <hyperlink ref="B61" r:id="rId29"/>
+    <hyperlink ref="B62" r:id="rId30"/>
+    <hyperlink ref="B63" r:id="rId31"/>
+    <hyperlink ref="B64" r:id="rId32"/>
+    <hyperlink ref="B65" r:id="rId33"/>
+    <hyperlink ref="B66" r:id="rId34"/>
+    <hyperlink ref="B67" r:id="rId35"/>
+    <hyperlink ref="B68" r:id="rId36"/>
+    <hyperlink ref="B69" r:id="rId37"/>
+    <hyperlink ref="B70" r:id="rId38"/>
+    <hyperlink ref="B71" r:id="rId39"/>
+    <hyperlink ref="B72" r:id="rId40"/>
+    <hyperlink ref="B73" r:id="rId41"/>
+    <hyperlink ref="B74" r:id="rId42"/>
+    <hyperlink ref="B75" r:id="rId43"/>
+    <hyperlink ref="B77" r:id="rId44"/>
+    <hyperlink ref="B78" r:id="rId45"/>
+    <hyperlink ref="B79" r:id="rId46"/>
+    <hyperlink ref="B81" r:id="rId47"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
--- a/Нарушения GDPR.xlsx
+++ b/Нарушения GDPR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="254">
   <si>
     <t>Надзорный орган (страна)</t>
   </si>
@@ -755,6 +755,27 @@
   </si>
   <si>
     <t>baden-württembergischen Social-Media</t>
+  </si>
+  <si>
+    <t>https://www.datatilsynet.no/en/about-privacy/reports-on-specific-subjects/administrative-fine-of-170.000--imposed-on-bergen-municipality/</t>
+  </si>
+  <si>
+    <t>Municipality of Bergen</t>
+  </si>
+  <si>
+    <t>1 600 000 норвежских крон</t>
+  </si>
+  <si>
+    <t>https://www.garanteprivacy.it/web/guest/home/docweb/-/docweb-display/docweb/9101974</t>
+  </si>
+  <si>
+    <t>Piattaforma Rousseau, Movimento 5 Stelle</t>
+  </si>
+  <si>
+    <t>50 тысяч евро</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Непринятие ранее предписанных надзорным органом технических и организационных мер защиты </t>
   </si>
 </sst>
 </file>
@@ -1191,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1717,17 +1738,23 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>122</v>
+    <row r="40" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B40" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>122</v>
@@ -1735,7 +1762,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>122</v>
@@ -1743,68 +1770,68 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B45" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B45" s="11" t="s">
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B46" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B47" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>122</v>
@@ -1812,124 +1839,118 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B51" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>144</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="54" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B54" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C54" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B54" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C54" t="s">
-        <v>152</v>
-      </c>
-      <c r="D54" t="s">
-        <v>155</v>
-      </c>
-      <c r="E54" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B56" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>157</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B56" s="11" t="s">
+    <row r="57" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B57" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B57" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C57" t="s">
-        <v>164</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E57" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C58" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>167</v>
@@ -1938,46 +1959,46 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B59" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B60" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="11" t="s">
+    <row r="61" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B61" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>174</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="81" x14ac:dyDescent="0.3">
-      <c r="B61" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E61" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="81" x14ac:dyDescent="0.3">
@@ -1985,266 +2006,294 @@
         <v>178</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="81" x14ac:dyDescent="0.3">
+      <c r="B63" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B63" s="11" t="s">
+    <row r="64" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B64" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>184</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D64" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
         <v>185</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F64" s="6" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B64" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C64" t="s">
-        <v>188</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E64" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>167</v>
       </c>
       <c r="E65" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B66" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B67" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D67" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="11" t="s">
+    <row r="68" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>199</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D68" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B68" s="11" t="s">
+    <row r="69" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B69" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B69" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E69" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B71" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C71" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D71" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B71" s="11" t="s">
+    <row r="72" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B72" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C72" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D72" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E72" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B72" s="11" t="s">
+    <row r="73" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B73" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B74" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E74" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B76" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D76" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="78" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>227</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B78" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>229</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D78" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B78" s="11" t="s">
+    <row r="79" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B79" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>231</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D79" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="11" t="s">
+    <row r="80" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D80" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="82" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>238</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B82" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>239</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D82" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E82" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="83" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B83" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2266,39 +2315,41 @@
     <hyperlink ref="B24" r:id="rId14"/>
     <hyperlink ref="B38" r:id="rId15"/>
     <hyperlink ref="B39" r:id="rId16"/>
-    <hyperlink ref="B44" r:id="rId17"/>
-    <hyperlink ref="B45" r:id="rId18"/>
-    <hyperlink ref="B46" r:id="rId19"/>
-    <hyperlink ref="B50" r:id="rId20"/>
-    <hyperlink ref="B53" r:id="rId21"/>
-    <hyperlink ref="B54" r:id="rId22"/>
-    <hyperlink ref="B55" r:id="rId23"/>
-    <hyperlink ref="B56" r:id="rId24"/>
-    <hyperlink ref="B57" r:id="rId25"/>
-    <hyperlink ref="B58" r:id="rId26"/>
-    <hyperlink ref="B59" r:id="rId27"/>
-    <hyperlink ref="B60" r:id="rId28"/>
-    <hyperlink ref="B61" r:id="rId29"/>
-    <hyperlink ref="B62" r:id="rId30"/>
-    <hyperlink ref="B63" r:id="rId31"/>
-    <hyperlink ref="B64" r:id="rId32"/>
-    <hyperlink ref="B65" r:id="rId33"/>
-    <hyperlink ref="B66" r:id="rId34"/>
-    <hyperlink ref="B67" r:id="rId35"/>
-    <hyperlink ref="B68" r:id="rId36"/>
-    <hyperlink ref="B69" r:id="rId37"/>
-    <hyperlink ref="B70" r:id="rId38"/>
-    <hyperlink ref="B71" r:id="rId39"/>
-    <hyperlink ref="B72" r:id="rId40"/>
-    <hyperlink ref="B73" r:id="rId41"/>
-    <hyperlink ref="B74" r:id="rId42"/>
-    <hyperlink ref="B75" r:id="rId43"/>
-    <hyperlink ref="B77" r:id="rId44"/>
-    <hyperlink ref="B78" r:id="rId45"/>
-    <hyperlink ref="B79" r:id="rId46"/>
-    <hyperlink ref="B81" r:id="rId47"/>
+    <hyperlink ref="B45" r:id="rId17"/>
+    <hyperlink ref="B46" r:id="rId18"/>
+    <hyperlink ref="B47" r:id="rId19"/>
+    <hyperlink ref="B51" r:id="rId20"/>
+    <hyperlink ref="B54" r:id="rId21"/>
+    <hyperlink ref="B55" r:id="rId22"/>
+    <hyperlink ref="B56" r:id="rId23"/>
+    <hyperlink ref="B57" r:id="rId24"/>
+    <hyperlink ref="B58" r:id="rId25"/>
+    <hyperlink ref="B59" r:id="rId26"/>
+    <hyperlink ref="B60" r:id="rId27"/>
+    <hyperlink ref="B61" r:id="rId28"/>
+    <hyperlink ref="B62" r:id="rId29"/>
+    <hyperlink ref="B63" r:id="rId30"/>
+    <hyperlink ref="B64" r:id="rId31"/>
+    <hyperlink ref="B65" r:id="rId32"/>
+    <hyperlink ref="B66" r:id="rId33"/>
+    <hyperlink ref="B67" r:id="rId34"/>
+    <hyperlink ref="B68" r:id="rId35"/>
+    <hyperlink ref="B69" r:id="rId36"/>
+    <hyperlink ref="B70" r:id="rId37"/>
+    <hyperlink ref="B71" r:id="rId38"/>
+    <hyperlink ref="B72" r:id="rId39"/>
+    <hyperlink ref="B73" r:id="rId40"/>
+    <hyperlink ref="B74" r:id="rId41"/>
+    <hyperlink ref="B75" r:id="rId42"/>
+    <hyperlink ref="B76" r:id="rId43"/>
+    <hyperlink ref="B78" r:id="rId44"/>
+    <hyperlink ref="B79" r:id="rId45"/>
+    <hyperlink ref="B80" r:id="rId46"/>
+    <hyperlink ref="B82" r:id="rId47"/>
+    <hyperlink ref="B83" r:id="rId48"/>
+    <hyperlink ref="B40" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
--- a/Нарушения GDPR.xlsx
+++ b/Нарушения GDPR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="339">
   <si>
     <t>Надзорный орган (страна)</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Кипр</t>
   </si>
   <si>
-    <t>Новости предоставляют по рассылке, запрос отправлен.</t>
-  </si>
-  <si>
     <t>https://www.dataprotectionauthority.be/news/data-protection-authority-defends-its-arguments-court-appeal-brussels-facebook-case</t>
   </si>
   <si>
@@ -61,18 +58,6 @@
     <t>Это судебное разбирательство проходит уже несколько лет. Ссылка дана на последнюю аппеляцию от Facebook</t>
   </si>
   <si>
-    <t>У них были прецеденты, связанные с ПДн, но они заканчивались постановлениями о продолжении работы без санкций.</t>
-  </si>
-  <si>
-    <t>http://www.dataprotection.gov.cy/dataprotection/dataprotection.nsf/All/DF8E7A541F88FDC5C2258392003DC981?OpenDocument</t>
-  </si>
-  <si>
-    <t>Статистические данные. Указано, что они издавали решения о наложении санкций 4 раза, без указания остальной информации</t>
-  </si>
-  <si>
-    <t>http://www.dataprotection.gov.cy/dataprotection/dataprotection.nsf/All/E3E5F0761225079EC225838A0042C953?OpenDocument</t>
-  </si>
-  <si>
     <t>Google LLC</t>
   </si>
   <si>
@@ -82,9 +67,6 @@
     <t>Отсутствие прозрачности, отсутствие согласия по поводу персонализации рекламы</t>
   </si>
   <si>
-    <t>Кипрское агенство ссылается на французское и приводят здесь информацию кратко</t>
-  </si>
-  <si>
     <t>Чехия</t>
   </si>
   <si>
@@ -172,9 +154,6 @@
     <t>HUMANIS и MALAKOFF-MEDERIC</t>
   </si>
   <si>
-    <t>То есть агенство сообщало, что деятельность организации, на которую подали жалобу, по обработке ПДн находится в контексте действия лицензии, а обработка определенных категорий ПДн соответствует ей.</t>
-  </si>
-  <si>
     <t>Использование ПДн для коммерческих поисковых целей, не соответствующим ранее заявленным</t>
   </si>
   <si>
@@ -304,9 +283,6 @@
     <t>http://www.naih.hu/files/NAIH-2019-596-hatarozat.pdf</t>
   </si>
   <si>
-    <t>500 тысяч венгерских фориантов</t>
-  </si>
-  <si>
     <t xml:space="preserve">Незаконная обработка ПДн </t>
   </si>
   <si>
@@ -349,9 +325,6 @@
     <t>http://www.naih.hu/files/NAIH-2018-5559-H-hatarozat.pdf</t>
   </si>
   <si>
-    <t>Не выполнение права на выдачу копии ПДн или права на ограничение обработки ПДн</t>
-  </si>
-  <si>
     <t>Ирландия</t>
   </si>
   <si>
@@ -776,6 +749,312 @@
   </si>
   <si>
     <t xml:space="preserve">Непринятие ранее предписанных надзорным органом технических и организационных мер защиты </t>
+  </si>
+  <si>
+    <t>https://www.autoriteprotectiondonnees.be/news/lautorite-de-protection-des-donnees-prononce-une-sanction-dans-le-cadre-dune-campagne</t>
+  </si>
+  <si>
+    <t>Mayor of</t>
+  </si>
+  <si>
+    <t>2000 евро</t>
+  </si>
+  <si>
+    <t>Административный штраф был наложен за неправомерное использование личных данных мэром в предвыборных целях.</t>
+  </si>
+  <si>
+    <t>61.5 тысяча евро</t>
+  </si>
+  <si>
+    <t>Контроллер обработал больше данных, чем необходимо для достижения поставленных целей. Кроме того, стало известно, что платежные данные стали общедоступными в интернете из-за неадекватных технических и организационных мер. Контроллер не сообщил о нарушении данных.</t>
+  </si>
+  <si>
+    <t>https://www.ada.lt/go.php/lit/Imones-atsakomybes-neisvengs--lietuvoje-skirta-zenkli-bauda-uz-bendrojo-duomenu-apsaugos-reglamento-pazeidimus-/1</t>
+  </si>
+  <si>
+    <t>UAB MisterTango</t>
+  </si>
+  <si>
+    <t>https://www.uoou.cz/assets/File.ashx?id_org=200144&amp;id_dokumenty=34471</t>
+  </si>
+  <si>
+    <t>https://www.uoou.cz/assets/File.ashx?id_org=200144&amp;id_dokumenty=34472</t>
+  </si>
+  <si>
+    <t>194 евро</t>
+  </si>
+  <si>
+    <t>Sports association</t>
+  </si>
+  <si>
+    <t>12.950 тысяч евро</t>
+  </si>
+  <si>
+    <r>
+      <t>https://uodo.gov.pl/pl/138/990</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://uodo.gov.pl/decyzje/ZSPR.440.43.2019</t>
+    </r>
+  </si>
+  <si>
+    <t>Опубликованы персональные данные со ссылкой на судей, которым были выданы судебные лицензии онлайн. Однако были указаны не только их имена, но и точные адреса и номера телефонов.</t>
+  </si>
+  <si>
+    <t>http://www.cms-lawnow.com/ealerts/2019/04/hungarian-data-authority-investigates-two-cases-of-privacy-breaches?cc_lang=en</t>
+  </si>
+  <si>
+    <t>Hugarian political party</t>
+  </si>
+  <si>
+    <t>34.375 тысяч евро</t>
+  </si>
+  <si>
+    <t>Не заявлили соответствующим лицам об утечке данных и не задокументировали нарушение</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 219.538 тысяч евро</t>
+  </si>
+  <si>
+    <t>https://uodo.gov.pl/en/553/1009</t>
+  </si>
+  <si>
+    <t>Private company working with data from publicly available sources</t>
+  </si>
+  <si>
+    <t>Нарушение права на доступ к ПДн</t>
+  </si>
+  <si>
+    <t>9.704 тысяч евро</t>
+  </si>
+  <si>
+    <t>3.105 тысяч евро</t>
+  </si>
+  <si>
+    <t>https://www.uoou.cz/assets/File.ashx?id_org=200144&amp;id_dokumenty=34470</t>
+  </si>
+  <si>
+    <t>Unnamed financial institution</t>
+  </si>
+  <si>
+    <t>Mayor's Office of the city of Kecdkemét</t>
+  </si>
+  <si>
+    <t>582 евро</t>
+  </si>
+  <si>
+    <t>https://www.uoou.cz/assets/File.ashx?id_org=200144&amp;id_dokumenty=34466</t>
+  </si>
+  <si>
+    <t>776 евро</t>
+  </si>
+  <si>
+    <t>https://www.uoou.cz/assets/File.ashx?id_org=200144&amp;id_dokumenty=34469</t>
+  </si>
+  <si>
+    <t>27.100 тысяч евро</t>
+  </si>
+  <si>
+    <t>500 евро</t>
+  </si>
+  <si>
+    <t>https://www.cpdp.bg/?p=element_view&amp;aid=2180</t>
+  </si>
+  <si>
+    <t>Telecommunication service provider</t>
+  </si>
+  <si>
+    <t>Employer</t>
+  </si>
+  <si>
+    <t>https://www.cpdp.bg/?p=element_view&amp;aid=2177</t>
+  </si>
+  <si>
+    <t>Не выполнение права на выдачу копии ПДн</t>
+  </si>
+  <si>
+    <t>Debt collector</t>
+  </si>
+  <si>
+    <t>5 тысяч евро</t>
+  </si>
+  <si>
+    <t>Lands Authority</t>
+  </si>
+  <si>
+    <t>https://www.gvzh.com.mt/malta-news/idpc-fines-lands-authority-data-breach/</t>
+  </si>
+  <si>
+    <t>В результате ненадлежащих мер безопасности произошла утечка ПДн</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>1.560 евро</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Private person</t>
+  </si>
+  <si>
+    <t>2 тысячи евро</t>
+  </si>
+  <si>
+    <t>https://www.mz-web.de/merseburg/hunderte-adressen-im-verteiler-merseburger-muss-fuer-wut-mails-ueber-2-000-euro-zahlen-32033308</t>
+  </si>
+  <si>
+    <t>Обеспечение утечки ПДн</t>
+  </si>
+  <si>
+    <t>1.165 евро</t>
+  </si>
+  <si>
+    <t>https://www.uoou.cz/assets/File.ashx?id_org=200144&amp;id_dokumenty=34465</t>
+  </si>
+  <si>
+    <t>https://www.uoou.cz/assets/File.ashx?id_org=200144&amp;id_dokumenty=34467</t>
+  </si>
+  <si>
+    <t>Сбор и обработка ПДн без согласия субъекта</t>
+  </si>
+  <si>
+    <t>https://www.cpdp.bg/?p=element&amp;aid=1195</t>
+  </si>
+  <si>
+    <t>388 евро</t>
+  </si>
+  <si>
+    <t>https://www.uoou.cz/assets/File.ashx?id_org=200144&amp;id_dokumenty=34464</t>
+  </si>
+  <si>
+    <t>Работодатель не удалил информацию, касающуюся бывшего работника</t>
+  </si>
+  <si>
+    <t>2200 евро</t>
+  </si>
+  <si>
+    <t>Private person</t>
+  </si>
+  <si>
+    <t>https://www.ris.bka.gv.at/Dokument.wxe?ResultFunctionToken=521e85cf-8d59-4b5c-a330-e36cf9444631&amp;Abfrage=Dsk&amp;Entscheidungsart=Undefined&amp;Organ=Undefined&amp;SucheNachRechtssatz=True&amp;SucheNachText=True&amp;GZ=&amp;VonDatum=25.05.2018&amp;BisDatum=31.12.2099&amp;Norm=&amp;ImRisSeitVonDatum=&amp;ImRisSeitBisDatum=&amp;ImRisSeit=Undefined&amp;ResultPageSize=100&amp;Suchworte=&amp;Dokumentnummer=DSBT_20181220_DSB_D550_037_0003_DSB_2018_00</t>
+  </si>
+  <si>
+    <t>3.200 евро</t>
+  </si>
+  <si>
+    <t>Штраф был наложен за i) непредоставление субъекту данных записей видеонаблюдения, ii) не сохранение записей для дальнейшего использования субъектом данных и iii) не информирование субъекта данных о его праве подать жалобу в надзорный орган.</t>
+  </si>
+  <si>
+    <t>4.800 евро</t>
+  </si>
+  <si>
+    <t>Betting place</t>
+  </si>
+  <si>
+    <t>https://www.dsb.gv.at/documents/22758/116802/Straferkenntnis+DSB-D550.038+0003-DSB+2018.pdf/fb0bb313-8651-44ac-a713-c286d83e3f19</t>
+  </si>
+  <si>
+    <t>Видеонаблюдение не было достаточно заметным, и большая часть тротуара объекта была записана. Наблюдение за общественным пространством таким образом, т. е. в крупном масштабе частными лицами, не допускается.</t>
+  </si>
+  <si>
+    <t>https://www.uoou.cz/assets/File.ashx?id_org=200144&amp;id_dokumenty=34468</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>https://www.cnpd.pt/index.asp</t>
+  </si>
+  <si>
+    <t>Врачи имели доступ к данным пациентов через ложные профили. Врачи имели неограниченный доступ ко всем файлам пациентов, независимо от специальности врача.</t>
+  </si>
+  <si>
+    <t>https://www.cpdp.bg/?p=element_view&amp;aid=2152</t>
+  </si>
+  <si>
+    <t>Не выполнение права на забвение субъекта ПДн</t>
+  </si>
+  <si>
+    <t>Kebab restaurant</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Private car owner</t>
+  </si>
+  <si>
+    <t>1.800 евро</t>
+  </si>
+  <si>
+    <t>300 евро</t>
+  </si>
+  <si>
+    <t>Видеонаблюдение использовалось незаконно.</t>
+  </si>
+  <si>
+    <t>https://www.derstandard.de/story/2000092017999/erst-vier-strafen-wegen-dsgvo-seit-mai</t>
+  </si>
+  <si>
+    <t>https://apps.derstandard.de/privacywall/story/2000092017999/erst-vier-strafen-wegen-dsgvo-seit-mai</t>
+  </si>
+  <si>
+    <t>Автомобильный видеорегистратор был незаконно использован.</t>
+  </si>
+  <si>
+    <t>118 евро</t>
+  </si>
+  <si>
+    <t>https://datenschutz-hamburg.de/assets/pdf/27._Taetigkeitsbericht_Datenschutz_2018_HmbBfDI.pdf</t>
+  </si>
+  <si>
+    <t>https://indd.adobe.com/view/d639298c-3165-4e30-85d8-0730de2a3598</t>
+  </si>
+  <si>
+    <t>Несвоевременное уведомление об утечке данных и несвоевременное уведомление субъектов данных.</t>
+  </si>
+  <si>
+    <t>Незаконное раскрытие персональных данных, относящихся к третьему лицу.</t>
+  </si>
+  <si>
+    <t>https://www.pingdigital.de/blog/2019/03/29/implodierende-aufsichtsbehoerden/1626</t>
+  </si>
+  <si>
+    <t>https://www.zaftda.de/tb-bundeslaender/berlin/695-tb-lfd-berlin-2018-ohne-drs-nr-vom-28-03-2019/file</t>
+  </si>
+  <si>
+    <t>N26</t>
+  </si>
+  <si>
+    <t>Банк обрабатывал персональные данные всех бывших клиентов без разрешения</t>
+  </si>
+  <si>
+    <t>State Hospital</t>
+  </si>
+  <si>
+    <t>Newspapaer</t>
+  </si>
+  <si>
+    <t>https://www.agplaw.com/cyprus-gdpr-commissioner-fines-newspaper-and-hospital/</t>
   </si>
 </sst>
 </file>
@@ -857,7 +1136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -880,9 +1159,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -890,9 +1166,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -903,9 +1176,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1212,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1223,7 +1516,7 @@
     <col min="1" max="1" width="23.77734375" customWidth="1"/>
     <col min="2" max="2" width="32.5546875" customWidth="1"/>
     <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" customWidth="1"/>
     <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
@@ -1245,1111 +1538,1544 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>279</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>281</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>39</v>
+        <v>283</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>289</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="F20" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="E22" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="E23" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="E24" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="E25" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="E26" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="E27" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="E34" s="17"/>
+      <c r="F34" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B35" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B39" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B40" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B43" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B44" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B46" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B49" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="17"/>
+      <c r="D50" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="19"/>
+    </row>
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B52" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B53" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B54" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B55" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B56" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="17"/>
+      <c r="D57" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="B58" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B59" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="17"/>
+      <c r="E60" s="17"/>
+    </row>
+    <row r="61" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B62" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B63" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="E64" s="17"/>
+    </row>
+    <row r="65" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="17"/>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B69" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="5" t="s">
+    <row r="70" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="17"/>
+      <c r="D70" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E73" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B34" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="14" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B39" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B40" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B46" s="11" t="s">
+      <c r="C74" s="17"/>
+      <c r="E74" s="17"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="17"/>
+      <c r="E75" s="17"/>
+    </row>
+    <row r="76" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>130</v>
       </c>
-      <c r="C46" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="6" t="s">
+      <c r="B76" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="C76" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="6" t="s">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>135</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="B77" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="17"/>
+      <c r="E77" s="17"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78" s="17"/>
+      <c r="E78" s="17"/>
+    </row>
+    <row r="79" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B80" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" t="s">
+        <v>146</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B81" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B82" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B83" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B84" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B85" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B86" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="81" x14ac:dyDescent="0.3">
+      <c r="B87" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="81" x14ac:dyDescent="0.3">
+      <c r="B88" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B89" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>139</v>
-      </c>
-      <c r="B51" s="11" t="s">
+    <row r="90" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B90" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B91" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B92" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B93" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B94" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B95" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B96" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B97" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B98" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B99" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B100" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E100" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E51" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B55" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" t="s">
-        <v>152</v>
-      </c>
-      <c r="D55" t="s">
-        <v>155</v>
-      </c>
-      <c r="E55" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B56" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" t="s">
-        <v>157</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E56" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B57" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E57" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B58" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C58" t="s">
-        <v>164</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E58" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B59" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C59" t="s">
-        <v>169</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E60" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" t="s">
-        <v>174</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E61" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="81" x14ac:dyDescent="0.3">
-      <c r="B62" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E62" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="81" x14ac:dyDescent="0.3">
-      <c r="B63" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E63" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B64" s="11" t="s">
+    </row>
+    <row r="101" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B101" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C102" s="17"/>
+      <c r="E102" s="17"/>
+    </row>
+    <row r="103" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>218</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E103" s="17"/>
+    </row>
+    <row r="104" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B104" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E104" s="17"/>
+    </row>
+    <row r="105" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B105" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E105" s="17"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="17"/>
+      <c r="E106" s="17"/>
+    </row>
+    <row r="107" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>229</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B108" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C64" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E64" t="s">
-        <v>185</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B65" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C65" t="s">
-        <v>188</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E65" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B66" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C66" t="s">
-        <v>190</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E66" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B67" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E67" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C68" t="s">
-        <v>199</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E68" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B69" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C69" t="s">
-        <v>201</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E69" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B70" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E70" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B71" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E71" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B72" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B73" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E74" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B75" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E75" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B76" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C76" t="s">
-        <v>223</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E76" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>227</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C78" t="s">
-        <v>229</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B79" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C79" t="s">
-        <v>231</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B80" s="11" t="s">
+      <c r="E108" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>234</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>237</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>238</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C82" t="s">
-        <v>239</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E82" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B83" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C83" t="s">
-        <v>248</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E83" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>243</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="B109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="17"/>
+      <c r="E109" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B10" r:id="rId5"/>
-    <hyperlink ref="B13" r:id="rId6"/>
-    <hyperlink ref="B17" r:id="rId7"/>
-    <hyperlink ref="B18" r:id="rId8"/>
-    <hyperlink ref="B19" r:id="rId9"/>
-    <hyperlink ref="B20" r:id="rId10"/>
-    <hyperlink ref="B21" r:id="rId11"/>
-    <hyperlink ref="B22" r:id="rId12"/>
-    <hyperlink ref="B23" r:id="rId13"/>
-    <hyperlink ref="B24" r:id="rId14"/>
-    <hyperlink ref="B38" r:id="rId15"/>
-    <hyperlink ref="B39" r:id="rId16"/>
-    <hyperlink ref="B45" r:id="rId17"/>
-    <hyperlink ref="B46" r:id="rId18"/>
-    <hyperlink ref="B47" r:id="rId19"/>
-    <hyperlink ref="B51" r:id="rId20"/>
-    <hyperlink ref="B54" r:id="rId21"/>
-    <hyperlink ref="B55" r:id="rId22"/>
-    <hyperlink ref="B56" r:id="rId23"/>
-    <hyperlink ref="B57" r:id="rId24"/>
-    <hyperlink ref="B58" r:id="rId25"/>
-    <hyperlink ref="B59" r:id="rId26"/>
-    <hyperlink ref="B60" r:id="rId27"/>
-    <hyperlink ref="B61" r:id="rId28"/>
-    <hyperlink ref="B62" r:id="rId29"/>
-    <hyperlink ref="B63" r:id="rId30"/>
-    <hyperlink ref="B64" r:id="rId31"/>
-    <hyperlink ref="B65" r:id="rId32"/>
-    <hyperlink ref="B66" r:id="rId33"/>
-    <hyperlink ref="B67" r:id="rId34"/>
-    <hyperlink ref="B68" r:id="rId35"/>
-    <hyperlink ref="B69" r:id="rId36"/>
-    <hyperlink ref="B70" r:id="rId37"/>
-    <hyperlink ref="B71" r:id="rId38"/>
-    <hyperlink ref="B72" r:id="rId39"/>
-    <hyperlink ref="B73" r:id="rId40"/>
-    <hyperlink ref="B74" r:id="rId41"/>
-    <hyperlink ref="B75" r:id="rId42"/>
-    <hyperlink ref="B76" r:id="rId43"/>
-    <hyperlink ref="B78" r:id="rId44"/>
-    <hyperlink ref="B79" r:id="rId45"/>
-    <hyperlink ref="B80" r:id="rId46"/>
-    <hyperlink ref="B82" r:id="rId47"/>
-    <hyperlink ref="B83" r:id="rId48"/>
-    <hyperlink ref="B40" r:id="rId49"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B17" r:id="rId2"/>
+    <hyperlink ref="B18" r:id="rId3"/>
+    <hyperlink ref="B30" r:id="rId4"/>
+    <hyperlink ref="B34" r:id="rId5"/>
+    <hyperlink ref="B35" r:id="rId6"/>
+    <hyperlink ref="B36" r:id="rId7"/>
+    <hyperlink ref="B37" r:id="rId8"/>
+    <hyperlink ref="B38" r:id="rId9"/>
+    <hyperlink ref="B39" r:id="rId10"/>
+    <hyperlink ref="B40" r:id="rId11"/>
+    <hyperlink ref="B41" r:id="rId12"/>
+    <hyperlink ref="B61" r:id="rId13"/>
+    <hyperlink ref="B62" r:id="rId14"/>
+    <hyperlink ref="B68" r:id="rId15"/>
+    <hyperlink ref="B69" r:id="rId16"/>
+    <hyperlink ref="B70" r:id="rId17"/>
+    <hyperlink ref="B76" r:id="rId18"/>
+    <hyperlink ref="B79" r:id="rId19"/>
+    <hyperlink ref="B80" r:id="rId20"/>
+    <hyperlink ref="B81" r:id="rId21"/>
+    <hyperlink ref="B82" r:id="rId22"/>
+    <hyperlink ref="B83" r:id="rId23"/>
+    <hyperlink ref="B84" r:id="rId24"/>
+    <hyperlink ref="B85" r:id="rId25"/>
+    <hyperlink ref="B86" r:id="rId26"/>
+    <hyperlink ref="B87" r:id="rId27"/>
+    <hyperlink ref="B88" r:id="rId28"/>
+    <hyperlink ref="B89" r:id="rId29"/>
+    <hyperlink ref="B90" r:id="rId30"/>
+    <hyperlink ref="B91" r:id="rId31"/>
+    <hyperlink ref="B92" r:id="rId32"/>
+    <hyperlink ref="B93" r:id="rId33"/>
+    <hyperlink ref="B94" r:id="rId34"/>
+    <hyperlink ref="B95" r:id="rId35"/>
+    <hyperlink ref="B96" r:id="rId36"/>
+    <hyperlink ref="B97" r:id="rId37"/>
+    <hyperlink ref="B98" r:id="rId38"/>
+    <hyperlink ref="B99" r:id="rId39"/>
+    <hyperlink ref="B100" r:id="rId40"/>
+    <hyperlink ref="B101" r:id="rId41"/>
+    <hyperlink ref="B103" r:id="rId42"/>
+    <hyperlink ref="B104" r:id="rId43"/>
+    <hyperlink ref="B105" r:id="rId44"/>
+    <hyperlink ref="B107" r:id="rId45"/>
+    <hyperlink ref="B108" r:id="rId46"/>
+    <hyperlink ref="B63" r:id="rId47"/>
+    <hyperlink ref="B9" r:id="rId48"/>
+    <hyperlink ref="B65" r:id="rId49"/>
+    <hyperlink ref="B59" r:id="rId50"/>
+    <hyperlink ref="B72" r:id="rId51"/>
+    <hyperlink ref="B23" r:id="rId52"/>
+    <hyperlink ref="B24" r:id="rId53"/>
+    <hyperlink ref="B25" r:id="rId54"/>
+    <hyperlink ref="B10" r:id="rId55"/>
+    <hyperlink ref="B11" r:id="rId56"/>
+    <hyperlink ref="B67" r:id="rId57"/>
+    <hyperlink ref="B43" r:id="rId58"/>
+    <hyperlink ref="B26" r:id="rId59"/>
+    <hyperlink ref="B27" r:id="rId60"/>
+    <hyperlink ref="B12" r:id="rId61"/>
+    <hyperlink ref="B28" r:id="rId62"/>
+    <hyperlink ref="B3"/>
+    <hyperlink ref="B4" r:id="rId63"/>
+    <hyperlink ref="B42" r:id="rId64"/>
+    <hyperlink ref="B29" r:id="rId65"/>
+    <hyperlink ref="B73" r:id="rId66"/>
+    <hyperlink ref="B13" r:id="rId67"/>
+    <hyperlink ref="B5" r:id="rId68"/>
+    <hyperlink ref="B6" r:id="rId69"/>
+    <hyperlink ref="B7" r:id="rId70"/>
+    <hyperlink ref="B44" r:id="rId71"/>
+    <hyperlink ref="B45" r:id="rId72"/>
+    <hyperlink ref="B46" r:id="rId73"/>
+    <hyperlink ref="B47" r:id="rId74"/>
+    <hyperlink ref="B15" r:id="rId75"/>
+    <hyperlink ref="B16" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
 </worksheet>
 </file>